--- a/平成31年度/シースリーカップ/c3cup 保護者参加集約表.xlsx
+++ b/平成31年度/シースリーカップ/c3cup 保護者参加集約表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>2019年度シースリーカップ保護者参加集約表</t>
     <rPh sb="4" eb="6">
@@ -89,6 +89,24 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クーラーボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>懇親会</t>
+    <rPh sb="0" eb="2">
+      <t>コンシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -177,14 +195,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,114 +514,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AO2"/>
+      <selection sqref="A1:AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.25" style="2"/>
-    <col min="4" max="4" width="2.25" style="3"/>
-    <col min="5" max="16384" width="2.25" style="2"/>
+    <col min="1" max="3" width="2.25" style="1"/>
+    <col min="4" max="4" width="2.25" style="2"/>
+    <col min="5" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+    </row>
+    <row r="3" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
     </row>
     <row r="5" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
@@ -733,83 +740,106 @@
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
     </row>
-    <row r="9" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5" t="s">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+    </row>
+    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
     </row>
     <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
@@ -842,6 +872,16 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
     </row>
     <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
@@ -874,6 +914,16 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
     </row>
     <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
@@ -906,6 +956,16 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
     </row>
     <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
@@ -938,8 +998,18 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
-    </row>
-    <row r="17" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+    </row>
+    <row r="17" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -970,8 +1040,18 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
-    </row>
-    <row r="18" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+    </row>
+    <row r="18" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1002,8 +1082,18 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
-    </row>
-    <row r="19" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+    </row>
+    <row r="19" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1034,86 +1124,110 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
-    </row>
-    <row r="20" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+    </row>
+    <row r="20" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-    </row>
-    <row r="24" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1134,18 +1248,8 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-    </row>
-    <row r="25" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1166,18 +1270,8 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-    </row>
-    <row r="26" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1198,18 +1292,8 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-    </row>
-    <row r="27" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1230,18 +1314,8 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-    </row>
-    <row r="28" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1262,185 +1336,629 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-    </row>
-    <row r="29" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-    </row>
-    <row r="30" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-    </row>
-    <row r="31" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
+    </row>
+    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+    </row>
+    <row r="32" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+    </row>
+    <row r="33" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+    </row>
+    <row r="34" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+    </row>
+    <row r="35" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+    </row>
+    <row r="36" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+    </row>
+    <row r="37" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+    </row>
+    <row r="38" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+    </row>
+    <row r="39" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+    </row>
+    <row r="40" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="A1:AO2"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="U5:AD5"/>
+  <mergeCells count="115">
+    <mergeCell ref="AE11:AN11"/>
+    <mergeCell ref="AE12:AN12"/>
+    <mergeCell ref="AE13:AN13"/>
+    <mergeCell ref="AE14:AN14"/>
+    <mergeCell ref="AE15:AN15"/>
+    <mergeCell ref="AE16:AN16"/>
+    <mergeCell ref="AE17:AN17"/>
+    <mergeCell ref="AE18:AN18"/>
+    <mergeCell ref="AE19:AN19"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="K47:T47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="K48:T48"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="U39:AD39"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="U37:AD37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="U38:AD38"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U35:AD35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AD36"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U33:AD33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AD34"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U31:AD31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AD32"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AD18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AD19"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AD11"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="K6:T6"/>
     <mergeCell ref="U6:AD6"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="K7:T7"/>
     <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AD18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AD19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AD20"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U23:AD23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AD24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AD26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U27:AD27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AD28"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U31:AD31"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U29:AD29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AD30"/>
+    <mergeCell ref="A1:AO1"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="U4:AD4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U5:AD5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/平成31年度/シースリーカップ/c3cup 保護者参加集約表.xlsx
+++ b/平成31年度/シースリーカップ/c3cup 保護者参加集約表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="12375" activeTab="2"/>
+    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="保護者参加集約表" sheetId="1" r:id="rId1"/>
@@ -1238,7 +1238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1418,43 +1418,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1491,13 +1454,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1549,146 +1523,68 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1704,68 +1600,137 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2119,7 +2084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO47"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:AO1"/>
     </sheetView>
   </sheetViews>
@@ -2131,49 +2096,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
     </row>
     <row r="2" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2184,190 +2149,190 @@
       </c>
     </row>
     <row r="3" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
     </row>
     <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19" t="s">
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
     </row>
     <row r="5" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19" t="s">
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
     </row>
     <row r="6" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
     </row>
     <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
     </row>
     <row r="8" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -2378,896 +2343,896 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="21" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21" t="s">
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
     </row>
     <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19" t="s">
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19" t="s">
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
     </row>
     <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19" t="s">
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19" t="s">
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
     </row>
     <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19" t="s">
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
     </row>
     <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="19"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
     </row>
     <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="21" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="19" t="s">
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="19"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
     </row>
     <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19" t="s">
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
     </row>
     <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
     </row>
     <row r="17" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
     </row>
     <row r="18" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
     </row>
     <row r="19" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="22" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="23"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="23"/>
-      <c r="AN19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="25"/>
     </row>
     <row r="20" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19" t="s">
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
     </row>
     <row r="21" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19" t="s">
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="19"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
     </row>
     <row r="22" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19" t="s">
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="19"/>
-      <c r="AN22" s="19"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
     </row>
     <row r="23" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19" t="s">
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="19"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
     </row>
     <row r="24" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19" t="s">
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="19"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
     </row>
     <row r="25" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="19"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
     </row>
     <row r="26" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="19"/>
-      <c r="AN26" s="19"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
     </row>
     <row r="27" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="19"/>
-      <c r="AN27" s="19"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
     </row>
     <row r="28" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -3278,817 +3243,889 @@
       </c>
     </row>
     <row r="29" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="21" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
     </row>
     <row r="30" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19" t="s">
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
     </row>
     <row r="31" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19" t="s">
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
     </row>
     <row r="32" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19" t="s">
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
     </row>
     <row r="33" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
     </row>
     <row r="34" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="21" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
     </row>
     <row r="35" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
-      <c r="AC35" s="19"/>
-      <c r="AD35" s="19"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
     </row>
     <row r="36" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="19"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
     </row>
     <row r="37" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="19"/>
-      <c r="AD37" s="19"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
     </row>
     <row r="38" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
     </row>
     <row r="39" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="22" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="23"/>
-      <c r="AB39" s="23"/>
-      <c r="AC39" s="23"/>
-      <c r="AD39" s="23"/>
-      <c r="AE39" s="23"/>
-      <c r="AF39" s="23"/>
-      <c r="AG39" s="23"/>
-      <c r="AH39" s="23"/>
-      <c r="AI39" s="23"/>
-      <c r="AJ39" s="23"/>
-      <c r="AK39" s="23"/>
-      <c r="AL39" s="23"/>
-      <c r="AM39" s="23"/>
-      <c r="AN39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="24"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="24"/>
+      <c r="AH39" s="24"/>
+      <c r="AI39" s="24"/>
+      <c r="AJ39" s="24"/>
+      <c r="AK39" s="24"/>
+      <c r="AL39" s="24"/>
+      <c r="AM39" s="24"/>
+      <c r="AN39" s="25"/>
     </row>
     <row r="40" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19" t="s">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19" t="s">
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="19"/>
-      <c r="AD40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="19"/>
-      <c r="AH40" s="19"/>
-      <c r="AI40" s="19"/>
-      <c r="AJ40" s="19"/>
-      <c r="AK40" s="19"/>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="19"/>
-      <c r="AN40" s="19"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="27"/>
+      <c r="AH40" s="27"/>
+      <c r="AI40" s="27"/>
+      <c r="AJ40" s="27"/>
+      <c r="AK40" s="27"/>
+      <c r="AL40" s="27"/>
+      <c r="AM40" s="27"/>
+      <c r="AN40" s="27"/>
     </row>
     <row r="41" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19" t="s">
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19" t="s">
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="19"/>
-      <c r="AJ41" s="19"/>
-      <c r="AK41" s="19"/>
-      <c r="AL41" s="19"/>
-      <c r="AM41" s="19"/>
-      <c r="AN41" s="19"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="27"/>
+      <c r="AG41" s="27"/>
+      <c r="AH41" s="27"/>
+      <c r="AI41" s="27"/>
+      <c r="AJ41" s="27"/>
+      <c r="AK41" s="27"/>
+      <c r="AL41" s="27"/>
+      <c r="AM41" s="27"/>
+      <c r="AN41" s="27"/>
     </row>
     <row r="42" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19" t="s">
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19" t="s">
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="19"/>
-      <c r="AI42" s="19"/>
-      <c r="AJ42" s="19"/>
-      <c r="AK42" s="19"/>
-      <c r="AL42" s="19"/>
-      <c r="AM42" s="19"/>
-      <c r="AN42" s="19"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
+      <c r="AF42" s="27"/>
+      <c r="AG42" s="27"/>
+      <c r="AH42" s="27"/>
+      <c r="AI42" s="27"/>
+      <c r="AJ42" s="27"/>
+      <c r="AK42" s="27"/>
+      <c r="AL42" s="27"/>
+      <c r="AM42" s="27"/>
+      <c r="AN42" s="27"/>
     </row>
     <row r="43" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19" t="s">
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19" t="s">
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="19"/>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="19"/>
-      <c r="AI43" s="19"/>
-      <c r="AJ43" s="19"/>
-      <c r="AK43" s="19"/>
-      <c r="AL43" s="19"/>
-      <c r="AM43" s="19"/>
-      <c r="AN43" s="19"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="27"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="27"/>
+      <c r="AJ43" s="27"/>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="27"/>
+      <c r="AM43" s="27"/>
+      <c r="AN43" s="27"/>
     </row>
     <row r="44" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19" t="s">
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19" t="s">
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="19"/>
-      <c r="AC44" s="19"/>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="19"/>
-      <c r="AG44" s="19"/>
-      <c r="AH44" s="19"/>
-      <c r="AI44" s="19"/>
-      <c r="AJ44" s="19"/>
-      <c r="AK44" s="19"/>
-      <c r="AL44" s="19"/>
-      <c r="AM44" s="19"/>
-      <c r="AN44" s="19"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="27"/>
+      <c r="AH44" s="27"/>
+      <c r="AI44" s="27"/>
+      <c r="AJ44" s="27"/>
+      <c r="AK44" s="27"/>
+      <c r="AL44" s="27"/>
+      <c r="AM44" s="27"/>
+      <c r="AN44" s="27"/>
     </row>
     <row r="45" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19" t="s">
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19" t="s">
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
-      <c r="AG45" s="19"/>
-      <c r="AH45" s="19"/>
-      <c r="AI45" s="19"/>
-      <c r="AJ45" s="19"/>
-      <c r="AK45" s="19"/>
-      <c r="AL45" s="19"/>
-      <c r="AM45" s="19"/>
-      <c r="AN45" s="19"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="27"/>
+      <c r="AF45" s="27"/>
+      <c r="AG45" s="27"/>
+      <c r="AH45" s="27"/>
+      <c r="AI45" s="27"/>
+      <c r="AJ45" s="27"/>
+      <c r="AK45" s="27"/>
+      <c r="AL45" s="27"/>
+      <c r="AM45" s="27"/>
+      <c r="AN45" s="27"/>
     </row>
     <row r="46" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19" t="s">
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
-      <c r="AG46" s="19"/>
-      <c r="AH46" s="19"/>
-      <c r="AI46" s="19"/>
-      <c r="AJ46" s="19"/>
-      <c r="AK46" s="19"/>
-      <c r="AL46" s="19"/>
-      <c r="AM46" s="19"/>
-      <c r="AN46" s="19"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="27"/>
+      <c r="AH46" s="27"/>
+      <c r="AI46" s="27"/>
+      <c r="AJ46" s="27"/>
+      <c r="AK46" s="27"/>
+      <c r="AL46" s="27"/>
+      <c r="AM46" s="27"/>
+      <c r="AN46" s="27"/>
     </row>
     <row r="47" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="19"/>
-      <c r="AI47" s="19"/>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="19"/>
-      <c r="AL47" s="19"/>
-      <c r="AM47" s="19"/>
-      <c r="AN47" s="19"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="27"/>
+      <c r="AH47" s="27"/>
+      <c r="AI47" s="27"/>
+      <c r="AJ47" s="27"/>
+      <c r="AK47" s="27"/>
+      <c r="AL47" s="27"/>
+      <c r="AM47" s="27"/>
+      <c r="AN47" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="U39:AN39"/>
-    <mergeCell ref="U19:AN19"/>
-    <mergeCell ref="AE9:AN9"/>
-    <mergeCell ref="AE10:AN10"/>
-    <mergeCell ref="AE11:AN11"/>
-    <mergeCell ref="AE12:AN12"/>
-    <mergeCell ref="AE13:AN13"/>
-    <mergeCell ref="AE14:AN14"/>
-    <mergeCell ref="AE15:AN15"/>
-    <mergeCell ref="AE16:AN16"/>
-    <mergeCell ref="AE18:AN18"/>
-    <mergeCell ref="AE17:AN17"/>
-    <mergeCell ref="U33:AD33"/>
-    <mergeCell ref="U34:AD34"/>
-    <mergeCell ref="U31:AD31"/>
-    <mergeCell ref="U38:AD38"/>
-    <mergeCell ref="U35:AD35"/>
-    <mergeCell ref="U37:AD37"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="K47:T47"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="AE40:AN40"/>
+    <mergeCell ref="AE41:AN41"/>
+    <mergeCell ref="AE42:AN42"/>
+    <mergeCell ref="AE43:AN43"/>
+    <mergeCell ref="AE44:AN44"/>
+    <mergeCell ref="AE45:AN45"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AE47:AN47"/>
+    <mergeCell ref="U40:AD40"/>
+    <mergeCell ref="U41:AD41"/>
+    <mergeCell ref="U42:AD42"/>
+    <mergeCell ref="U43:AD43"/>
+    <mergeCell ref="U44:AD44"/>
+    <mergeCell ref="U45:AD45"/>
+    <mergeCell ref="U46:AD46"/>
+    <mergeCell ref="U47:AD47"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AD30"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="AE20:AN20"/>
+    <mergeCell ref="AE21:AN21"/>
+    <mergeCell ref="AE22:AN22"/>
+    <mergeCell ref="AE23:AN23"/>
+    <mergeCell ref="AE24:AN24"/>
+    <mergeCell ref="AE25:AN25"/>
+    <mergeCell ref="AE26:AN26"/>
+    <mergeCell ref="AE27:AN27"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U5:AD5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AD6"/>
+    <mergeCell ref="A1:AO1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:T3"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="U4:AD4"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AD36"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AD18"/>
+    <mergeCell ref="U20:AD20"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="A29:T29"/>
+    <mergeCell ref="U21:AD21"/>
+    <mergeCell ref="U22:AD22"/>
+    <mergeCell ref="U23:AD23"/>
+    <mergeCell ref="U24:AD24"/>
+    <mergeCell ref="U25:AD25"/>
+    <mergeCell ref="U26:AD26"/>
+    <mergeCell ref="U27:AD27"/>
+    <mergeCell ref="A19:T19"/>
+    <mergeCell ref="U32:AD32"/>
+    <mergeCell ref="U29:AD29"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="K40:T40"/>
     <mergeCell ref="A41:J41"/>
@@ -4113,106 +4150,34 @@
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="K35:T35"/>
     <mergeCell ref="A36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AD36"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AD18"/>
-    <mergeCell ref="U20:AD20"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="A29:T29"/>
-    <mergeCell ref="U21:AD21"/>
-    <mergeCell ref="U22:AD22"/>
-    <mergeCell ref="U23:AD23"/>
-    <mergeCell ref="U24:AD24"/>
-    <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="U26:AD26"/>
-    <mergeCell ref="U27:AD27"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="U32:AD32"/>
-    <mergeCell ref="U29:AD29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="U5:AD5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AD6"/>
-    <mergeCell ref="A1:AO1"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="K3:T3"/>
-    <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="U4:AD4"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AD30"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="AE20:AN20"/>
-    <mergeCell ref="AE21:AN21"/>
-    <mergeCell ref="AE22:AN22"/>
-    <mergeCell ref="AE23:AN23"/>
-    <mergeCell ref="AE24:AN24"/>
-    <mergeCell ref="AE25:AN25"/>
-    <mergeCell ref="AE26:AN26"/>
-    <mergeCell ref="AE27:AN27"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="AE40:AN40"/>
-    <mergeCell ref="AE41:AN41"/>
-    <mergeCell ref="AE42:AN42"/>
-    <mergeCell ref="AE43:AN43"/>
-    <mergeCell ref="AE44:AN44"/>
-    <mergeCell ref="AE45:AN45"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AE47:AN47"/>
-    <mergeCell ref="U40:AD40"/>
-    <mergeCell ref="U41:AD41"/>
-    <mergeCell ref="U42:AD42"/>
-    <mergeCell ref="U43:AD43"/>
-    <mergeCell ref="U44:AD44"/>
-    <mergeCell ref="U45:AD45"/>
-    <mergeCell ref="U46:AD46"/>
-    <mergeCell ref="U47:AD47"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="K47:T47"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U39:AN39"/>
+    <mergeCell ref="U19:AN19"/>
+    <mergeCell ref="AE9:AN9"/>
+    <mergeCell ref="AE10:AN10"/>
+    <mergeCell ref="AE11:AN11"/>
+    <mergeCell ref="AE12:AN12"/>
+    <mergeCell ref="AE13:AN13"/>
+    <mergeCell ref="AE14:AN14"/>
+    <mergeCell ref="AE15:AN15"/>
+    <mergeCell ref="AE16:AN16"/>
+    <mergeCell ref="AE18:AN18"/>
+    <mergeCell ref="AE17:AN17"/>
+    <mergeCell ref="U33:AD33"/>
+    <mergeCell ref="U34:AD34"/>
+    <mergeCell ref="U31:AD31"/>
+    <mergeCell ref="U38:AD38"/>
+    <mergeCell ref="U35:AD35"/>
+    <mergeCell ref="U37:AD37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4242,19 +4207,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -4273,11 +4238,11 @@
       <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
         <v>51</v>
@@ -4303,237 +4268,237 @@
     </row>
     <row r="5" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="71"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="30" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="27"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="51"/>
+      <c r="F8" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="42"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55"/>
     </row>
     <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="54"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="49"/>
       <c r="C9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="60" t="s">
+      <c r="E9" s="57"/>
+      <c r="F9" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="54"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="43" t="s">
+      <c r="E10" s="70"/>
+      <c r="F10" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="55"/>
     </row>
     <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="54"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="49"/>
       <c r="C11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="75" t="s">
+      <c r="E11" s="83"/>
+      <c r="F11" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="83"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="43" t="s">
+      <c r="E12" s="70"/>
+      <c r="F12" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="42"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="75" t="s">
+      <c r="E13" s="71"/>
+      <c r="F13" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="54"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="49"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="30" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32" t="s">
+      <c r="G14" s="34"/>
+      <c r="H14" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="25" t="s">
+      <c r="I14" s="36"/>
+      <c r="J14" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="30" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32" t="s">
+      <c r="G15" s="34"/>
+      <c r="H15" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="27"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="27"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
@@ -4550,281 +4515,262 @@
     </row>
     <row r="18" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="68"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="71"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="30" t="s">
+      <c r="E20" s="51"/>
+      <c r="F20" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="30" t="s">
+      <c r="G20" s="34"/>
+      <c r="H20" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="49"/>
       <c r="C21" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="60" t="s">
+      <c r="E21" s="57"/>
+      <c r="F21" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
     </row>
     <row r="22" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="30" t="s">
+      <c r="E22" s="70"/>
+      <c r="F22" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56" t="s">
+      <c r="G22" s="51"/>
+      <c r="H22" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="59"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="54"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="49"/>
       <c r="C23" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="60" t="s">
+      <c r="E23" s="58"/>
+      <c r="F23" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
     </row>
     <row r="24" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41" t="s">
+      <c r="E24" s="70"/>
+      <c r="F24" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43" t="s">
+      <c r="G24" s="55"/>
+      <c r="H24" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="44"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="55"/>
     </row>
     <row r="25" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47" t="s">
+      <c r="E25" s="71"/>
+      <c r="F25" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47" t="s">
+      <c r="G25" s="71"/>
+      <c r="H25" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="48"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="79"/>
       <c r="K25" s="49"/>
     </row>
     <row r="26" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="30" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32" t="s">
+      <c r="G26" s="34"/>
+      <c r="H26" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="25" t="s">
+      <c r="I26" s="36"/>
+      <c r="J26" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="27"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="30" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32" t="s">
+      <c r="G27" s="34"/>
+      <c r="H27" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="27"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
     </row>
     <row r="28" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="27"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
     </row>
     <row r="30" spans="1:11" ht="114" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="A22:B23"/>
@@ -4836,39 +4782,58 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4882,180 +4847,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="91"/>
+    <col min="1" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="92"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
